--- a/網站資訊系統/VS/專題進度.xlsx
+++ b/網站資訊系統/VS/專題進度.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>create</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,6 +203,14 @@
   </si>
   <si>
     <t>想要做成跳出確認刪除視窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檢查到有相同帳號，將member轉為Vmmember return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -540,16 +548,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35" customWidth="1"/>
     <col min="6" max="7" width="9.140625" style="1"/>
   </cols>
@@ -656,63 +664,63 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>40</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>42</v>
       </c>
       <c r="D13" t="s">
         <v>43</v>
@@ -720,9 +728,17 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>44</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>45</v>
       </c>
     </row>

--- a/網站資訊系統/VS/專題進度.xlsx
+++ b/網站資訊系統/VS/專題進度.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>create</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,10 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UI優化，原權限沒有帶入頁面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8/12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,6 +207,34 @@
   </si>
   <si>
     <t>8/14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同會員帳號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改為於Model寫自訂驗證</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UX優化，原權限沒有帶入頁面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,26 +575,26 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="53.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>9</v>
@@ -590,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -607,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -629,6 +653,12 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
@@ -665,10 +695,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>47</v>
+      <c r="G8" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -695,10 +731,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -714,32 +750,56 @@
       <c r="E12" t="s">
         <v>20</v>
       </c>
+      <c r="F12" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
         <v>40</v>
       </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
         <v>42</v>
       </c>
-      <c r="D14" t="s">
-        <v>43</v>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
         <v>44</v>
       </c>
-      <c r="D15" t="s">
-        <v>45</v>
+      <c r="F15" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/網站資訊系統/VS/專題進度.xlsx
+++ b/網站資訊系統/VS/專題進度.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>create</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,13 +235,21 @@
   </si>
   <si>
     <t>UX優化，原權限沒有帶入頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB會員想要新增照片欄位及建立日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -352,7 +360,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -387,7 +395,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -564,7 +572,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -572,21 +580,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -609,7 +617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -626,7 +634,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -643,7 +651,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -660,7 +668,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>5</v>
       </c>
@@ -671,7 +679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>8</v>
       </c>
@@ -682,7 +690,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>21</v>
       </c>
@@ -693,7 +701,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>45</v>
       </c>
@@ -707,7 +715,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -721,7 +729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>15</v>
       </c>
@@ -729,7 +737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>53</v>
       </c>
@@ -737,7 +745,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -754,7 +762,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -774,7 +782,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>41</v>
       </c>
@@ -791,7 +799,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>43</v>
       </c>
@@ -800,6 +808,14 @@
       </c>
       <c r="F15" s="1" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -815,9 +831,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>

--- a/網站資訊系統/VS/專題進度.xlsx
+++ b/網站資訊系統/VS/專題進度.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
   <si>
     <t>create</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,13 +243,64 @@
   </si>
   <si>
     <t>8/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上傳會員照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台即時聊天功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOG功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Place_off_day</t>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多值屬性的View顯示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Place</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畫面可以像04ViewModel，但公休日多值屬性要想想怎麼做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>應該合併至Place</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -275,12 +326,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -295,11 +352,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -572,7 +631,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -580,21 +639,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.125" style="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -617,7 +676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -634,7 +693,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -651,7 +710,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -668,7 +727,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>5</v>
       </c>
@@ -679,7 +738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>8</v>
       </c>
@@ -690,7 +749,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>21</v>
       </c>
@@ -701,7 +760,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>45</v>
       </c>
@@ -715,76 +774,70 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D10" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D11" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>18</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>20</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" t="s">
-        <v>50</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
         <v>42</v>
@@ -796,26 +849,93 @@
         <v>47</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D18" t="s">
+      <c r="G15" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -831,9 +951,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>

--- a/網站資訊系統/VS/專題進度.xlsx
+++ b/網站資訊系統/VS/專題進度.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
   <si>
     <t>create</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,30 +270,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Place_off_day</t>
+    <t>Place</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>多值屬性的View顯示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Place</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>畫面可以像04ViewModel，但公休日多值屬性要想想怎麼做</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>應該合併至Place</t>
+    <t>畫面可以像04ViewModel，但公休日多值屬性要想想怎麼POST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -326,18 +311,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -352,13 +331,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -419,7 +396,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -454,7 +431,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -639,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -882,59 +859,42 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="5" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="1" t="s">
         <v>61</v>
       </c>
     </row>

--- a/網站資訊系統/VS/專題進度.xlsx
+++ b/網站資訊系統/VS/專題進度.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
   <si>
     <t>create</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,18 +274,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>畫面可以像04ViewModel，但公休日多值屬性要想想怎麼POST</t>
+    <t>create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畫面可以像04ViewModel，但公休日多值屬性要想想怎麼POST，若無法解決則將公休日另外建controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資安問題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端的hidden及readonly，user可以透過F12改掉，以達到修改資料的目的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UX優化，將對應的類別帶入新增頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增成功後回到對應的類別名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>類別+名稱相同的檢查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -311,12 +347,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -331,11 +373,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -396,7 +442,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -431,7 +477,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -608,7 +654,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -616,21 +662,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="111.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -653,7 +700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -670,24 +717,25 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -704,7 +752,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>5</v>
       </c>
@@ -715,7 +763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>8</v>
       </c>
@@ -726,7 +774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>21</v>
       </c>
@@ -737,7 +785,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>45</v>
       </c>
@@ -751,7 +799,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>56</v>
       </c>
@@ -762,7 +810,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -776,40 +824,43 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
+    <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -829,7 +880,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>41</v>
       </c>
@@ -846,56 +897,108 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
+    <row r="23" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F23" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F24" s="7" t="s">
         <v>61</v>
+      </c>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -911,9 +1014,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>

--- a/網站資訊系統/VS/專題進度.xlsx
+++ b/網站資訊系統/VS/專題進度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="82">
   <si>
     <t>create</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -315,6 +315,38 @@
   </si>
   <si>
     <t>8/22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用Viewmodel類別分類並且包含參加者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理員的管理權限到哪裡??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activity資料表新增屬性:報名截止時間、最少參加人數、最多參加人數、??是否成團</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Place資料表新增屬性:??新增照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>將流水號都改成int:1、2、3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友、活動明細新增屬性:建立日期、加入時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -654,7 +686,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -662,22 +694,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="111.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.125" style="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="111.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -700,7 +732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -717,7 +749,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
@@ -735,7 +767,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -752,7 +784,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>5</v>
       </c>
@@ -763,7 +795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>8</v>
       </c>
@@ -774,7 +806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>21</v>
       </c>
@@ -785,7 +817,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>45</v>
       </c>
@@ -799,7 +831,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>56</v>
       </c>
@@ -810,7 +842,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -824,7 +856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D11" s="6" t="s">
         <v>15</v>
       </c>
@@ -833,7 +865,7 @@
       </c>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D12" s="6" t="s">
         <v>53</v>
       </c>
@@ -842,7 +874,7 @@
       </c>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
@@ -860,7 +892,7 @@
       </c>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -880,7 +912,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>41</v>
       </c>
@@ -897,7 +929,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>43</v>
       </c>
@@ -909,7 +941,7 @@
       </c>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>62</v>
       </c>
@@ -924,7 +956,7 @@
       </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>68</v>
       </c>
@@ -935,7 +967,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D19" s="4" t="s">
         <v>71</v>
       </c>
@@ -946,7 +978,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D20" s="4" t="s">
         <v>72</v>
       </c>
@@ -957,47 +989,95 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D22" t="s">
+    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="6" t="s">
+    <row r="29" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="6" t="s">
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F30" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="G30" s="7"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>65</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C35" t="s">
         <v>67</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D35" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1014,9 +1094,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>

--- a/網站資訊系統/VS/專題進度.xlsx
+++ b/網站資訊系統/VS/專題進度.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -353,7 +353,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -686,7 +686,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -694,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1052,32 +1052,32 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29" s="7"/>
-    </row>
     <row r="30" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D30" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F31" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="G31" s="7"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>65</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>67</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>66</v>
       </c>
     </row>

--- a/網站資訊系統/VS/專題進度.xlsx
+++ b/網站資訊系統/VS/專題進度.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="90">
   <si>
     <t>create</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,10 +238,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DB會員想要新增照片欄位及建立日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8/16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -334,19 +330,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Activity資料表新增屬性:報名截止時間、最少參加人數、最多參加人數、??是否成團</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Place資料表新增屬性:??新增照片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>將流水號都改成int:1、2、3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>好友、活動明細新增屬性:建立日期、加入時間</t>
+    <t>8/23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>會員資料表新增屬性:照片、建立日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activity資料表新增屬性:報名截止時間、最少參加人數、最多參加人數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增狀態資料表:裡面包含編號及名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友、活動明細新增屬性:建立日期、參加日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Place資料表新增屬性:??新增照片、是否停業</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片+是否停業</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活動狀態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,7 +506,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -509,7 +541,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -694,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -833,13 +865,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -943,142 +975,187 @@
     </row>
     <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="F17" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D19" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="5" t="s">
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D22" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="F22" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F23" s="5"/>
+      <c r="D23" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="D24" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D26" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+        <v>85</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D27" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
+    </row>
+    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D29" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="6" t="s">
+      <c r="G29" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D30" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="6" t="s">
+      <c r="F33" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="G33" s="7"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" t="s">
         <v>65</v>
-      </c>
-      <c r="C36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/網站資訊系統/VS/專題進度.xlsx
+++ b/網站資訊系統/VS/專題進度.xlsx
@@ -366,10 +366,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>照片+是否停業</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8/22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -379,6 +375,10 @@
   </si>
   <si>
     <t>8/19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片預覽+是否停業</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -729,7 +729,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1023,10 +1023,10 @@
     </row>
     <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D21" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="G21" s="5"/>
     </row>
@@ -1038,7 +1038,7 @@
         <v>75</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G22" s="7"/>
     </row>
@@ -1047,13 +1047,13 @@
         <v>74</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D24" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>81</v>

--- a/網站資訊系統/VS/專題進度.xlsx
+++ b/網站資訊系統/VS/專題進度.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -322,10 +322,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>管理員的管理權限到哪裡??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DataBase</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -370,22 +366,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>活動狀態</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8/19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>照片預覽+是否停業</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理員的管理權限到哪裡:只能改狀態，無法Create、Delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -506,7 +506,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -541,7 +541,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -718,7 +718,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -726,22 +726,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="111.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="111.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -764,7 +764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -781,7 +781,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
@@ -799,7 +799,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -816,7 +816,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>5</v>
       </c>
@@ -827,7 +827,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>8</v>
       </c>
@@ -838,7 +838,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>21</v>
       </c>
@@ -849,7 +849,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>45</v>
       </c>
@@ -863,7 +863,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>55</v>
       </c>
@@ -874,7 +874,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -888,7 +888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D11" s="6" t="s">
         <v>15</v>
       </c>
@@ -897,7 +897,7 @@
       </c>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D12" s="6" t="s">
         <v>53</v>
       </c>
@@ -906,7 +906,7 @@
       </c>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
@@ -924,7 +924,7 @@
       </c>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -944,7 +944,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>41</v>
       </c>
@@ -961,7 +961,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>43</v>
       </c>
@@ -973,7 +973,7 @@
       </c>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>61</v>
       </c>
@@ -988,7 +988,7 @@
       </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>67</v>
       </c>
@@ -999,7 +999,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D19" s="4" t="s">
         <v>70</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D20" s="4" t="s">
         <v>71</v>
       </c>
@@ -1021,140 +1021,135 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D21" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>73</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D23" s="6" t="s">
         <v>74</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="D24" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>76</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D25" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>78</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D26" s="4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F26" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D28" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="4" t="s">
+      <c r="F28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D29" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D29" s="4" t="s">
+      <c r="G29" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G29" s="1" t="s">
+    </row>
+    <row r="31" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D30" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D32" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>64</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C37" t="s">
         <v>66</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D37" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1171,9 +1166,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>

--- a/網站資訊系統/VS/專題進度.xlsx
+++ b/網站資訊系統/VS/專題進度.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -385,7 +385,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -718,7 +718,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -728,20 +728,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="111.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.125" style="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="111.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -764,7 +764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -781,7 +781,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
@@ -799,7 +799,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -816,7 +816,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>5</v>
       </c>
@@ -827,7 +827,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>8</v>
       </c>
@@ -838,7 +838,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>21</v>
       </c>
@@ -849,7 +849,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>45</v>
       </c>
@@ -863,7 +863,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>55</v>
       </c>
@@ -874,7 +874,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -888,7 +888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D11" s="6" t="s">
         <v>15</v>
       </c>
@@ -897,7 +897,7 @@
       </c>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D12" s="6" t="s">
         <v>53</v>
       </c>
@@ -906,7 +906,7 @@
       </c>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
@@ -924,7 +924,7 @@
       </c>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -944,7 +944,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>41</v>
       </c>
@@ -961,7 +961,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>43</v>
       </c>
@@ -973,7 +973,7 @@
       </c>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>61</v>
       </c>
@@ -988,7 +988,7 @@
       </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>67</v>
       </c>
@@ -999,7 +999,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D19" s="4" t="s">
         <v>70</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D20" s="4" t="s">
         <v>71</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D21" s="4" t="s">
         <v>87</v>
       </c>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>73</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D23" s="6" t="s">
         <v>74</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>75</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D25" s="4" t="s">
         <v>84</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D26" s="4" t="s">
         <v>76</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D27" s="4" t="s">
         <v>83</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D28" s="4" t="s">
         <v>79</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D29" s="4" t="s">
         <v>82</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D31" s="6" t="s">
         <v>58</v>
       </c>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D32" s="6" t="s">
         <v>59</v>
       </c>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>64</v>
       </c>
@@ -1166,9 +1166,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>

--- a/網站資訊系統/VS/專題進度.xlsx
+++ b/網站資訊系統/VS/專題進度.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>create</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -278,18 +278,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>資安問題</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端的hidden及readonly，user可以透過F12改掉，以達到修改資料的目的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UX優化，將對應的類別帶入新增頁面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -379,6 +367,26 @@
   </si>
   <si>
     <t>8/25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>將Create及Edit都做在index上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尋找附近地標</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/29</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,7 +514,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -541,7 +549,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -726,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -990,121 +998,121 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D19" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D20" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D21" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D23" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F24" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D25" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D26" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F26" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D27" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F27" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D28" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>54</v>
@@ -1115,42 +1123,56 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D29" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F29" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="6" t="s">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D30" s="4"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="33" spans="4:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F33" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="6" t="s">
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="4:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F34" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" t="s">
-        <v>66</v>
-      </c>
-      <c r="D37" t="s">
-        <v>65</v>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/網站資訊系統/VS/專題進度.xlsx
+++ b/網站資訊系統/VS/專題進度.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="93">
   <si>
     <t>create</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -387,6 +387,10 @@
   </si>
   <si>
     <t>8/29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -737,7 +741,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -903,7 +907,9 @@
       <c r="F11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D12" s="6" t="s">

--- a/網站資訊系統/VS/專題進度.xlsx
+++ b/網站資訊系統/VS/專題進度.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="96">
   <si>
     <t>create</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -391,13 +391,25 @@
   </si>
   <si>
     <t>8/31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留言功能:利用檔案讀取做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的活動 篩選改為Details含有member_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -423,7 +435,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,6 +445,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -458,6 +476,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -518,7 +538,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -553,7 +573,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -730,7 +750,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -738,22 +758,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="111.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="111.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -776,7 +796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -793,7 +813,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
@@ -811,7 +831,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -828,7 +848,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>5</v>
       </c>
@@ -839,7 +859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>8</v>
       </c>
@@ -850,7 +870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>21</v>
       </c>
@@ -861,7 +881,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>45</v>
       </c>
@@ -875,7 +895,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>55</v>
       </c>
@@ -886,7 +906,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -900,7 +920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D11" s="6" t="s">
         <v>15</v>
       </c>
@@ -911,7 +931,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D12" s="6" t="s">
         <v>53</v>
       </c>
@@ -920,7 +940,7 @@
       </c>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
@@ -938,7 +958,7 @@
       </c>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -958,7 +978,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>41</v>
       </c>
@@ -975,7 +995,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>43</v>
       </c>
@@ -987,7 +1007,7 @@
       </c>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>61</v>
       </c>
@@ -1002,7 +1022,7 @@
       </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>64</v>
       </c>
@@ -1013,7 +1033,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D19" s="4" t="s">
         <v>67</v>
       </c>
@@ -1024,7 +1044,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D20" s="4" t="s">
         <v>68</v>
       </c>
@@ -1035,7 +1055,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D21" s="4" t="s">
         <v>84</v>
       </c>
@@ -1044,7 +1064,7 @@
       </c>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>70</v>
       </c>
@@ -1058,7 +1078,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D23" s="6" t="s">
         <v>71</v>
       </c>
@@ -1069,7 +1089,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>72</v>
       </c>
@@ -1083,7 +1103,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D25" s="4" t="s">
         <v>81</v>
       </c>
@@ -1094,7 +1114,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D26" s="4" t="s">
         <v>73</v>
       </c>
@@ -1105,7 +1125,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D27" s="4" t="s">
         <v>80</v>
       </c>
@@ -1116,7 +1136,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D28" s="4" t="s">
         <v>76</v>
       </c>
@@ -1127,7 +1147,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D29" s="4" t="s">
         <v>79</v>
       </c>
@@ -1138,12 +1158,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D30" s="4"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -1155,7 +1175,7 @@
       </c>
       <c r="G31" s="5"/>
     </row>
-    <row r="33" spans="4:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D33" s="6" t="s">
         <v>58</v>
       </c>
@@ -1164,7 +1184,7 @@
       </c>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="4:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D34" s="6" t="s">
         <v>59</v>
       </c>
@@ -1173,13 +1193,40 @@
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>90</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>91</v>
       </c>
+    </row>
+    <row r="37" spans="4:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" spans="4:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G38" s="9"/>
+    </row>
+    <row r="39" spans="4:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G39" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1194,9 +1241,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>

--- a/網站資訊系統/VS/專題進度.xlsx
+++ b/網站資訊系統/VS/專題進度.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -435,7 +435,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,12 +445,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -476,8 +470,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -750,7 +742,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -760,20 +752,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="111.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.125" style="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="111.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -796,7 +788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -813,7 +805,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
@@ -831,7 +823,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -848,7 +840,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>5</v>
       </c>
@@ -859,7 +851,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>8</v>
       </c>
@@ -870,7 +862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>21</v>
       </c>
@@ -881,7 +873,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>45</v>
       </c>
@@ -895,7 +887,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>55</v>
       </c>
@@ -906,7 +898,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -920,7 +912,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D11" s="6" t="s">
         <v>15</v>
       </c>
@@ -931,7 +923,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D12" s="6" t="s">
         <v>53</v>
       </c>
@@ -940,7 +932,7 @@
       </c>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
@@ -958,7 +950,7 @@
       </c>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -978,7 +970,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>41</v>
       </c>
@@ -995,7 +987,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>43</v>
       </c>
@@ -1007,7 +999,7 @@
       </c>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>61</v>
       </c>
@@ -1022,7 +1014,7 @@
       </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>64</v>
       </c>
@@ -1033,7 +1025,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D19" s="4" t="s">
         <v>67</v>
       </c>
@@ -1044,7 +1036,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D20" s="4" t="s">
         <v>68</v>
       </c>
@@ -1055,7 +1047,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D21" s="4" t="s">
         <v>84</v>
       </c>
@@ -1064,7 +1056,7 @@
       </c>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>70</v>
       </c>
@@ -1078,7 +1070,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D23" s="6" t="s">
         <v>71</v>
       </c>
@@ -1089,7 +1081,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>72</v>
       </c>
@@ -1103,7 +1095,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D25" s="4" t="s">
         <v>81</v>
       </c>
@@ -1114,7 +1106,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D26" s="4" t="s">
         <v>73</v>
       </c>
@@ -1125,7 +1117,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D27" s="4" t="s">
         <v>80</v>
       </c>
@@ -1136,7 +1128,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D28" s="4" t="s">
         <v>76</v>
       </c>
@@ -1147,7 +1139,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D29" s="4" t="s">
         <v>79</v>
       </c>
@@ -1158,12 +1150,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D30" s="4"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -1175,7 +1167,7 @@
       </c>
       <c r="G31" s="5"/>
     </row>
-    <row r="33" spans="4:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D33" s="6" t="s">
         <v>58</v>
       </c>
@@ -1184,7 +1176,7 @@
       </c>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="4:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D34" s="6" t="s">
         <v>59</v>
       </c>
@@ -1193,7 +1185,7 @@
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>90</v>
       </c>
@@ -1201,32 +1193,32 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="4:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="8" t="s">
+    <row r="37" spans="4:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G37" s="9"/>
-    </row>
-    <row r="38" spans="4:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="8" t="s">
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="4:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G38" s="9"/>
-    </row>
-    <row r="39" spans="4:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="8" t="s">
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="4:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G39" s="9"/>
+      <c r="G39" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1241,9 +1233,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
